--- a/biology/Zoologie/Emesis_lucinda/Emesis_lucinda.xlsx
+++ b/biology/Zoologie/Emesis_lucinda/Emesis_lucinda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emesis lucinda est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Emesis.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emesis lucinda a été décrit par Pieter Cramer en 1775 sous le nom de Papilio lucinda[1].
-Nom vernaculaire
-Emesis lucinda se nomme en anglais Lucinda Metalmark.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emesis lucinda a été décrit par Pieter Cramer en 1775 sous le nom de Papilio lucinda.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Emesis lucinda est un papillon d'une envergure de 35 mm à 40 mm dont l'apex des ailes antérieures est pointu et le dessus très foncé, presque noir orné de lignes de petites marques noires[2].
-Le revers est jaune cuivré orné de marques foncées et d'une ligne submarginale de petits chevrons..
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emesis lucinda se nomme en anglais Lucinda Metalmark.
 </t>
         </is>
       </c>
@@ -573,10 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emesis lucinda est un papillon d'une envergure de 35 mm à 40 mm dont l'apex des ailes antérieures est pointu et le dessus très foncé, presque noir orné de lignes de petites marques noires.
+Le revers est jaune cuivré orné de marques foncées et d'une ligne submarginale de petits chevrons..
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,14 +624,43 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Emesis_lucinda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emesis_lucinda</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Emesis lucinda est présent au Mexique, au Costa Rica, en Guyane, au Surinam et en Colombie[1].
-Biotope
-Protection</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emesis lucinda est présent au Mexique, au Costa Rica, en Guyane, au Surinam et en Colombie.
+</t>
         </is>
       </c>
     </row>
